--- a/natmiOut/OldD7/LR-pairs_lrc2p/Tgfb3-Eng.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Tgfb3-Eng.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.82658536011513</v>
+        <v>1.987640333333333</v>
       </c>
       <c r="H2">
-        <v>1.82658536011513</v>
+        <v>5.962921</v>
       </c>
       <c r="I2">
-        <v>0.02692448148191403</v>
+        <v>0.0278174819837782</v>
       </c>
       <c r="J2">
-        <v>0.02692448148191403</v>
+        <v>0.0278174819837782</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>214.998999198222</v>
+        <v>218.7785543333333</v>
       </c>
       <c r="N2">
-        <v>214.998999198222</v>
+        <v>656.3356630000001</v>
       </c>
       <c r="O2">
-        <v>0.7873286713819787</v>
+        <v>0.7837094150017259</v>
       </c>
       <c r="P2">
-        <v>0.7873286713819787</v>
+        <v>0.7837094150017259</v>
       </c>
       <c r="Q2">
-        <v>392.7140243748769</v>
+        <v>434.8530786612914</v>
       </c>
       <c r="R2">
-        <v>392.7140243748769</v>
+        <v>3913.677707951623</v>
       </c>
       <c r="S2">
-        <v>0.02119841623280407</v>
+        <v>0.02180082253232786</v>
       </c>
       <c r="T2">
-        <v>0.02119841623280407</v>
+        <v>0.02180082253232786</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.82658536011513</v>
+        <v>1.987640333333333</v>
       </c>
       <c r="H3">
-        <v>1.82658536011513</v>
+        <v>5.962921</v>
       </c>
       <c r="I3">
-        <v>0.02692448148191403</v>
+        <v>0.0278174819837782</v>
       </c>
       <c r="J3">
-        <v>0.02692448148191403</v>
+        <v>0.0278174819837782</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>46.1466192585527</v>
+        <v>46.29469433333333</v>
       </c>
       <c r="N3">
-        <v>46.1466192585527</v>
+        <v>138.884083</v>
       </c>
       <c r="O3">
-        <v>0.1689894211838117</v>
+        <v>0.1658370397602197</v>
       </c>
       <c r="P3">
-        <v>0.1689894211838117</v>
+        <v>0.1658370397602197</v>
       </c>
       <c r="Q3">
-        <v>84.29073915647928</v>
+        <v>92.01720167627144</v>
       </c>
       <c r="R3">
-        <v>84.29073915647928</v>
+        <v>828.154815086443</v>
       </c>
       <c r="S3">
-        <v>0.004549952541302909</v>
+        <v>0.00461316886577302</v>
       </c>
       <c r="T3">
-        <v>0.004549952541302909</v>
+        <v>0.00461316886577302</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.82658536011513</v>
+        <v>1.987640333333333</v>
       </c>
       <c r="H4">
-        <v>1.82658536011513</v>
+        <v>5.962921</v>
       </c>
       <c r="I4">
-        <v>0.02692448148191403</v>
+        <v>0.0278174819837782</v>
       </c>
       <c r="J4">
-        <v>0.02692448148191403</v>
+        <v>0.0278174819837782</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.18118321266422</v>
+        <v>6.978882</v>
       </c>
       <c r="N4">
-        <v>6.18118321266422</v>
+        <v>20.936646</v>
       </c>
       <c r="O4">
-        <v>0.02263556009350837</v>
+        <v>0.02499977909741928</v>
       </c>
       <c r="P4">
-        <v>0.02263556009350837</v>
+        <v>0.02499977909741927</v>
       </c>
       <c r="Q4">
-        <v>11.29045876444187</v>
+        <v>13.871507344774</v>
       </c>
       <c r="R4">
-        <v>11.29045876444187</v>
+        <v>124.843566102966</v>
       </c>
       <c r="S4">
-        <v>0.0006094507185704183</v>
+        <v>0.0006954309046408956</v>
       </c>
       <c r="T4">
-        <v>0.0006094507185704183</v>
+        <v>0.0006954309046408955</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.82658536011513</v>
+        <v>1.987640333333333</v>
       </c>
       <c r="H5">
-        <v>1.82658536011513</v>
+        <v>5.962921</v>
       </c>
       <c r="I5">
-        <v>0.02692448148191403</v>
+        <v>0.0278174819837782</v>
       </c>
       <c r="J5">
-        <v>0.02692448148191403</v>
+        <v>0.0278174819837782</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.74721051004838</v>
+        <v>7.105616</v>
       </c>
       <c r="N5">
-        <v>5.74721051004838</v>
+        <v>21.316848</v>
       </c>
       <c r="O5">
-        <v>0.02104634734070128</v>
+        <v>0.02545376614063513</v>
       </c>
       <c r="P5">
-        <v>0.02104634734070128</v>
+        <v>0.02545376614063513</v>
       </c>
       <c r="Q5">
-        <v>10.49777057915418</v>
+        <v>14.12340895477867</v>
       </c>
       <c r="R5">
-        <v>10.49777057915418</v>
+        <v>127.110680593008</v>
       </c>
       <c r="S5">
-        <v>0.0005666619892366421</v>
+        <v>0.0007080596810364214</v>
       </c>
       <c r="T5">
-        <v>0.0005666619892366421</v>
+        <v>0.0007080596810364213</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>56.6390703330436</v>
+        <v>56.81334033333334</v>
       </c>
       <c r="H6">
-        <v>56.6390703330436</v>
+        <v>170.440021</v>
       </c>
       <c r="I6">
-        <v>0.8348789132081619</v>
+        <v>0.7951157181995667</v>
       </c>
       <c r="J6">
-        <v>0.8348789132081619</v>
+        <v>0.7951157181995667</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>214.998999198222</v>
+        <v>218.7785543333333</v>
       </c>
       <c r="N6">
-        <v>214.998999198222</v>
+        <v>656.3356630000001</v>
       </c>
       <c r="O6">
-        <v>0.7873286713819787</v>
+        <v>0.7837094150017259</v>
       </c>
       <c r="P6">
-        <v>0.7873286713819787</v>
+        <v>0.7837094150017259</v>
       </c>
       <c r="Q6">
-        <v>12177.34343712208</v>
+        <v>12429.54046497433</v>
       </c>
       <c r="R6">
-        <v>12177.34343712208</v>
+        <v>111865.8641847689</v>
       </c>
       <c r="S6">
-        <v>0.6573241055010124</v>
+        <v>0.6231396743688595</v>
       </c>
       <c r="T6">
-        <v>0.6573241055010124</v>
+        <v>0.6231396743688595</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>56.6390703330436</v>
+        <v>56.81334033333334</v>
       </c>
       <c r="H7">
-        <v>56.6390703330436</v>
+        <v>170.440021</v>
       </c>
       <c r="I7">
-        <v>0.8348789132081619</v>
+        <v>0.7951157181995667</v>
       </c>
       <c r="J7">
-        <v>0.8348789132081619</v>
+        <v>0.7951157181995667</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>46.1466192585527</v>
+        <v>46.29469433333333</v>
       </c>
       <c r="N7">
-        <v>46.1466192585527</v>
+        <v>138.884083</v>
       </c>
       <c r="O7">
-        <v>0.1689894211838117</v>
+        <v>0.1658370397602197</v>
       </c>
       <c r="P7">
-        <v>0.1689894211838117</v>
+        <v>0.1658370397602197</v>
       </c>
       <c r="Q7">
-        <v>2613.70161381735</v>
+        <v>2630.156224787305</v>
       </c>
       <c r="R7">
-        <v>2613.70161381735</v>
+        <v>23671.40602308574</v>
       </c>
       <c r="S7">
-        <v>0.141085704301617</v>
+        <v>0.1318596369730372</v>
       </c>
       <c r="T7">
-        <v>0.141085704301617</v>
+        <v>0.1318596369730372</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>56.6390703330436</v>
+        <v>56.81334033333334</v>
       </c>
       <c r="H8">
-        <v>56.6390703330436</v>
+        <v>170.440021</v>
       </c>
       <c r="I8">
-        <v>0.8348789132081619</v>
+        <v>0.7951157181995667</v>
       </c>
       <c r="J8">
-        <v>0.8348789132081619</v>
+        <v>0.7951157181995667</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.18118321266422</v>
+        <v>6.978882</v>
       </c>
       <c r="N8">
-        <v>6.18118321266422</v>
+        <v>20.936646</v>
       </c>
       <c r="O8">
-        <v>0.02263556009350837</v>
+        <v>0.02499977909741928</v>
       </c>
       <c r="P8">
-        <v>0.02263556009350837</v>
+        <v>0.02499977909741927</v>
       </c>
       <c r="Q8">
-        <v>350.0964707235171</v>
+        <v>396.493598212174</v>
       </c>
       <c r="R8">
-        <v>350.0964707235171</v>
+        <v>3568.442383909566</v>
       </c>
       <c r="S8">
-        <v>0.01889795181072631</v>
+        <v>0.01987771731187505</v>
       </c>
       <c r="T8">
-        <v>0.01889795181072631</v>
+        <v>0.01987771731187504</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>56.6390703330436</v>
+        <v>56.81334033333334</v>
       </c>
       <c r="H9">
-        <v>56.6390703330436</v>
+        <v>170.440021</v>
       </c>
       <c r="I9">
-        <v>0.8348789132081619</v>
+        <v>0.7951157181995667</v>
       </c>
       <c r="J9">
-        <v>0.8348789132081619</v>
+        <v>0.7951157181995667</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.74721051004838</v>
+        <v>7.105616</v>
       </c>
       <c r="N9">
-        <v>5.74721051004838</v>
+        <v>21.316848</v>
       </c>
       <c r="O9">
-        <v>0.02104634734070128</v>
+        <v>0.02545376614063513</v>
       </c>
       <c r="P9">
-        <v>0.02104634734070128</v>
+        <v>0.02545376614063513</v>
       </c>
       <c r="Q9">
-        <v>325.5166602974376</v>
+        <v>403.6937800859787</v>
       </c>
       <c r="R9">
-        <v>325.5166602974376</v>
+        <v>3633.244020773808</v>
       </c>
       <c r="S9">
-        <v>0.01757115159480617</v>
+        <v>0.02023868954579492</v>
       </c>
       <c r="T9">
-        <v>0.01757115159480617</v>
+        <v>0.02023868954579491</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.730166693558334</v>
+        <v>0.7501196666666666</v>
       </c>
       <c r="H10">
-        <v>0.730166693558334</v>
+        <v>2.250359</v>
       </c>
       <c r="I10">
-        <v>0.01076290221563071</v>
+        <v>0.01049809664416703</v>
       </c>
       <c r="J10">
-        <v>0.01076290221563071</v>
+        <v>0.01049809664416703</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>214.998999198222</v>
+        <v>218.7785543333333</v>
       </c>
       <c r="N10">
-        <v>214.998999198222</v>
+        <v>656.3356630000001</v>
       </c>
       <c r="O10">
-        <v>0.7873286713819787</v>
+        <v>0.7837094150017259</v>
       </c>
       <c r="P10">
-        <v>0.7873286713819787</v>
+        <v>0.7837094150017259</v>
       </c>
       <c r="Q10">
-        <v>156.9851083629167</v>
+        <v>164.1100962503352</v>
       </c>
       <c r="R10">
-        <v>156.9851083629167</v>
+        <v>1476.990866253017</v>
       </c>
       <c r="S10">
-        <v>0.008473941501646685</v>
+        <v>0.008227457179631727</v>
       </c>
       <c r="T10">
-        <v>0.008473941501646685</v>
+        <v>0.008227457179631728</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.730166693558334</v>
+        <v>0.7501196666666666</v>
       </c>
       <c r="H11">
-        <v>0.730166693558334</v>
+        <v>2.250359</v>
       </c>
       <c r="I11">
-        <v>0.01076290221563071</v>
+        <v>0.01049809664416703</v>
       </c>
       <c r="J11">
-        <v>0.01076290221563071</v>
+        <v>0.01049809664416703</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>46.1466192585527</v>
+        <v>46.29469433333333</v>
       </c>
       <c r="N11">
-        <v>46.1466192585527</v>
+        <v>138.884083</v>
       </c>
       <c r="O11">
-        <v>0.1689894211838117</v>
+        <v>0.1658370397602197</v>
       </c>
       <c r="P11">
-        <v>0.1689894211838117</v>
+        <v>0.1658370397602197</v>
       </c>
       <c r="Q11">
-        <v>33.69472440291276</v>
+        <v>34.72656068175522</v>
       </c>
       <c r="R11">
-        <v>33.69472440291276</v>
+        <v>312.539046135797</v>
       </c>
       <c r="S11">
-        <v>0.001818816615677399</v>
+        <v>0.001740973270585357</v>
       </c>
       <c r="T11">
-        <v>0.001818816615677399</v>
+        <v>0.001740973270585357</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.730166693558334</v>
+        <v>0.7501196666666666</v>
       </c>
       <c r="H12">
-        <v>0.730166693558334</v>
+        <v>2.250359</v>
       </c>
       <c r="I12">
-        <v>0.01076290221563071</v>
+        <v>0.01049809664416703</v>
       </c>
       <c r="J12">
-        <v>0.01076290221563071</v>
+        <v>0.01049809664416703</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.18118321266422</v>
+        <v>6.978882</v>
       </c>
       <c r="N12">
-        <v>6.18118321266422</v>
+        <v>20.936646</v>
       </c>
       <c r="O12">
-        <v>0.02263556009350837</v>
+        <v>0.02499977909741928</v>
       </c>
       <c r="P12">
-        <v>0.02263556009350837</v>
+        <v>0.02499977909741927</v>
       </c>
       <c r="Q12">
-        <v>4.513294108669314</v>
+        <v>5.234996639545999</v>
       </c>
       <c r="R12">
-        <v>4.513294108669314</v>
+        <v>47.114969755914</v>
       </c>
       <c r="S12">
-        <v>0.0002436243198824634</v>
+        <v>0.0002624500970475345</v>
       </c>
       <c r="T12">
-        <v>0.0002436243198824634</v>
+        <v>0.0002624500970475345</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.730166693558334</v>
+        <v>0.7501196666666666</v>
       </c>
       <c r="H13">
-        <v>0.730166693558334</v>
+        <v>2.250359</v>
       </c>
       <c r="I13">
-        <v>0.01076290221563071</v>
+        <v>0.01049809664416703</v>
       </c>
       <c r="J13">
-        <v>0.01076290221563071</v>
+        <v>0.01049809664416703</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>5.74721051004838</v>
+        <v>7.105616</v>
       </c>
       <c r="N13">
-        <v>5.74721051004838</v>
+        <v>21.316848</v>
       </c>
       <c r="O13">
-        <v>0.02104634734070128</v>
+        <v>0.02545376614063513</v>
       </c>
       <c r="P13">
-        <v>0.02104634734070128</v>
+        <v>0.02545376614063513</v>
       </c>
       <c r="Q13">
-        <v>4.196421695305732</v>
+        <v>5.330062305381333</v>
       </c>
       <c r="R13">
-        <v>4.196421695305732</v>
+        <v>47.970560748432</v>
       </c>
       <c r="S13">
-        <v>0.0002265197784241674</v>
+        <v>0.0002672160969024141</v>
       </c>
       <c r="T13">
-        <v>0.0002265197784241674</v>
+        <v>0.0002672160969024141</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>8.645237480753419</v>
+        <v>11.90182033333333</v>
       </c>
       <c r="H14">
-        <v>8.645237480753419</v>
+        <v>35.705461</v>
       </c>
       <c r="I14">
-        <v>0.1274337030942934</v>
+        <v>0.166568703172488</v>
       </c>
       <c r="J14">
-        <v>0.1274337030942934</v>
+        <v>0.166568703172488</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>214.998999198222</v>
+        <v>218.7785543333333</v>
       </c>
       <c r="N14">
-        <v>214.998999198222</v>
+        <v>656.3356630000001</v>
       </c>
       <c r="O14">
-        <v>0.7873286713819787</v>
+        <v>0.7837094150017259</v>
       </c>
       <c r="P14">
-        <v>0.7873286713819787</v>
+        <v>0.7837094150017259</v>
       </c>
       <c r="Q14">
-        <v>1858.717406192943</v>
+        <v>2603.863046461738</v>
       </c>
       <c r="R14">
-        <v>1858.717406192943</v>
+        <v>23434.76741815565</v>
       </c>
       <c r="S14">
-        <v>0.1003322081465156</v>
+        <v>0.1305414609209067</v>
       </c>
       <c r="T14">
-        <v>0.1003322081465156</v>
+        <v>0.1305414609209067</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>8.645237480753419</v>
+        <v>11.90182033333333</v>
       </c>
       <c r="H15">
-        <v>8.645237480753419</v>
+        <v>35.705461</v>
       </c>
       <c r="I15">
-        <v>0.1274337030942934</v>
+        <v>0.166568703172488</v>
       </c>
       <c r="J15">
-        <v>0.1274337030942934</v>
+        <v>0.166568703172488</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>46.1466192585527</v>
+        <v>46.29469433333333</v>
       </c>
       <c r="N15">
-        <v>46.1466192585527</v>
+        <v>138.884083</v>
       </c>
       <c r="O15">
-        <v>0.1689894211838117</v>
+        <v>0.1658370397602197</v>
       </c>
       <c r="P15">
-        <v>0.1689894211838117</v>
+        <v>0.1658370397602197</v>
       </c>
       <c r="Q15">
-        <v>398.9484824240973</v>
+        <v>550.991134341918</v>
       </c>
       <c r="R15">
-        <v>398.9484824240973</v>
+        <v>4958.920209077263</v>
       </c>
       <c r="S15">
-        <v>0.02153494772521436</v>
+        <v>0.02762326065082412</v>
       </c>
       <c r="T15">
-        <v>0.02153494772521436</v>
+        <v>0.02762326065082412</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>8.645237480753419</v>
+        <v>11.90182033333333</v>
       </c>
       <c r="H16">
-        <v>8.645237480753419</v>
+        <v>35.705461</v>
       </c>
       <c r="I16">
-        <v>0.1274337030942934</v>
+        <v>0.166568703172488</v>
       </c>
       <c r="J16">
-        <v>0.1274337030942934</v>
+        <v>0.166568703172488</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>6.18118321266422</v>
+        <v>6.978882</v>
       </c>
       <c r="N16">
-        <v>6.18118321266422</v>
+        <v>20.936646</v>
       </c>
       <c r="O16">
-        <v>0.02263556009350837</v>
+        <v>0.02499977909741928</v>
       </c>
       <c r="P16">
-        <v>0.02263556009350837</v>
+        <v>0.02499977909741927</v>
       </c>
       <c r="Q16">
-        <v>53.43779678552855</v>
+        <v>83.06139969153399</v>
       </c>
       <c r="R16">
-        <v>53.43779678552855</v>
+        <v>747.5525972238059</v>
       </c>
       <c r="S16">
-        <v>0.002884533244329182</v>
+        <v>0.004164180783855801</v>
       </c>
       <c r="T16">
-        <v>0.002884533244329182</v>
+        <v>0.004164180783855801</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>8.645237480753419</v>
+        <v>11.90182033333333</v>
       </c>
       <c r="H17">
-        <v>8.645237480753419</v>
+        <v>35.705461</v>
       </c>
       <c r="I17">
-        <v>0.1274337030942934</v>
+        <v>0.166568703172488</v>
       </c>
       <c r="J17">
-        <v>0.1274337030942934</v>
+        <v>0.166568703172488</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>5.74721051004838</v>
+        <v>7.105616</v>
       </c>
       <c r="N17">
-        <v>5.74721051004838</v>
+        <v>21.316848</v>
       </c>
       <c r="O17">
-        <v>0.02104634734070128</v>
+        <v>0.02545376614063513</v>
       </c>
       <c r="P17">
-        <v>0.02104634734070128</v>
+        <v>0.02545376614063513</v>
       </c>
       <c r="Q17">
-        <v>49.68599971125023</v>
+        <v>84.56976498965867</v>
       </c>
       <c r="R17">
-        <v>49.68599971125023</v>
+        <v>761.127884906928</v>
       </c>
       <c r="S17">
-        <v>0.002682013978234299</v>
+        <v>0.004239800816901378</v>
       </c>
       <c r="T17">
-        <v>0.002682013978234299</v>
+        <v>0.004239800816901377</v>
       </c>
     </row>
   </sheetData>
